--- a/problem1/data.xlsx
+++ b/problem1/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Documents\m3challenge\problem1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9D3FF0-E728-437F-92C7-9954D715721E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2C06F6-4EE0-4D85-8F45-0AB98428DAB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6696" yWindow="216" windowWidth="15324" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,7 +586,7 @@
         <v>32.28</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" ref="E12:E53" si="0">AVERAGE(F4:F11)</f>
+        <f>AVERAGE(F4:F11)</f>
         <v>101196.75</v>
       </c>
       <c r="F12" s="2">
@@ -607,7 +607,7 @@
         <v>31.83</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F5:F12)</f>
         <v>103420.75</v>
       </c>
       <c r="F13" s="2">
@@ -628,7 +628,7 @@
         <v>32.03</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F6:F13)</f>
         <v>105715.125</v>
       </c>
       <c r="F14" s="2">
@@ -649,7 +649,7 @@
         <v>31.39</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F7:F14)</f>
         <v>107909</v>
       </c>
       <c r="F15" s="2">
@@ -670,7 +670,7 @@
         <v>31.73</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F8:F15)</f>
         <v>109551.125</v>
       </c>
       <c r="F16" s="2">
@@ -691,7 +691,7 @@
         <v>31.17</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F9:F16)</f>
         <v>110749.375</v>
       </c>
       <c r="F17" s="2">
@@ -712,7 +712,7 @@
         <v>30.38</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F10:F17)</f>
         <v>111431.625</v>
       </c>
       <c r="F18" s="2">
@@ -733,7 +733,7 @@
         <v>30.52</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F11:F18)</f>
         <v>112088.25</v>
       </c>
       <c r="F19" s="2">
@@ -754,7 +754,7 @@
         <v>31.29</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F12:F19)</f>
         <v>112573.5</v>
       </c>
       <c r="F20" s="2">
@@ -775,7 +775,7 @@
         <v>30.92</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F13:F20)</f>
         <v>113129.75</v>
       </c>
       <c r="F21" s="2">
@@ -796,7 +796,7 @@
         <v>30.830905999999999</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F14:F21)</f>
         <v>113517.375</v>
       </c>
       <c r="F22" s="2">
